--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="227">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -2587,10 +2587,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2670,63 +2670,63 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.99</v>
+        <v>0.928124943041768</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07187505695823</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.928124943041768</v>
+        <v>0.99</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.07187505695823</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>0.980758075213057</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01</v>
+        <v>1.01924192478694</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.980758075213057</v>
+        <v>0.99</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01924192478694</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2740,35 +2740,35 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.99</v>
+        <v>0.850553653712464</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.01</v>
+        <v>1.14944634628754</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.850553653712464</v>
+        <v>0.99</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.14944634628754</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2796,77 +2796,77 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.99</v>
+        <v>0.998343913039016</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.01</v>
+        <v>1.00165608696098</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.998343913039016</v>
+        <v>0.925834010503215</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.00165608696098</v>
+        <v>1.07416598949679</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.925834010503215</v>
+        <v>0.914831185724609</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.07416598949679</v>
+        <v>1.08516881427539</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.914831185724609</v>
+        <v>0.889197992439507</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.08516881427539</v>
+        <v>1.11080200756049</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.889197992439507</v>
+        <v>0.99</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.11080200756049</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2894,77 +2894,77 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.99</v>
+        <v>0.912928600623706</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.01</v>
+        <v>1.08707139937629</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.99</v>
+        <v>0.885298914584682</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11470108541532</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.912928600623706</v>
+        <v>0.99</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.08707139937629</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.885298914584682</v>
+        <v>0.99</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1.11470108541532</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.99</v>
+        <v>0.923333362502783</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07666663749722</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2978,21 +2978,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.923333362502783</v>
+        <v>0.955157747123127</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.07666663749722</v>
+        <v>1.04484225287687</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3006,77 +3006,77 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.955157747123127</v>
+        <v>0.824707049979672</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.04484225287687</v>
+        <v>1.17529295002033</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.99</v>
+        <v>0.952987338158675</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1.01</v>
+        <v>1.04701266184133</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.824707049979672</v>
+        <v>0.873263888888888</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1.17529295002033</v>
+        <v>1.12673611111111</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.952987338158675</v>
+        <v>0.99</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1.04701266184133</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.873263888888888</v>
+        <v>0.99</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.12673611111111</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3090,21 +3090,21 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.99</v>
+        <v>0.944333167529983</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.01</v>
+        <v>1.05566683247002</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3118,63 +3118,63 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.944333167529983</v>
+        <v>0.890748496539046</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.05566683247002</v>
+        <v>1.10925150346095</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.99</v>
+        <v>0.738916363773338</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1.01</v>
+        <v>1.26108363622666</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.890748496539046</v>
+        <v>0.99</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1.10925150346095</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.738916363773338</v>
+        <v>0.99</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.26108363622666</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3298,34 +3298,8 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" s="0" t="n">
-        <v>1.01</v>
-      </c>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3344,16 +3318,16 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.004048582996"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0566801619433"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.9433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12317,13 +12291,13 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -856,7 +856,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -986,7 +986,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A:D I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2587,10 +2587,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2670,63 +2670,63 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.928124943041768</v>
+        <v>0.99</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1.07187505695823</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.99</v>
+        <v>0.928124943041768</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1.01</v>
+        <v>1.07187505695823</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.980758075213057</v>
+        <v>0.99</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1.01924192478694</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.99</v>
+        <v>0.980758075213057</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1.01</v>
+        <v>1.01924192478694</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2740,35 +2740,35 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.850553653712464</v>
+        <v>0.99</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1.14944634628754</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.99</v>
+        <v>0.850553653712464</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1.01</v>
+        <v>1.14944634628754</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2796,77 +2796,77 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.998343913039016</v>
+        <v>0.99</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1.00165608696098</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.925834010503215</v>
+        <v>0.998343913039016</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1.07416598949679</v>
+        <v>1.00165608696098</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.914831185724609</v>
+        <v>0.925834010503215</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1.08516881427539</v>
+        <v>1.07416598949679</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.889197992439507</v>
+        <v>0.914831185724609</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1.11080200756049</v>
+        <v>1.08516881427539</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.99</v>
+        <v>0.889197992439507</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11080200756049</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2894,77 +2894,77 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.912928600623706</v>
+        <v>0.99</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1.08707139937629</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.885298914584682</v>
+        <v>0.99</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1.11470108541532</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.99</v>
+        <v>0.912928600623706</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1.01</v>
+        <v>1.08707139937629</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.99</v>
+        <v>0.885298914584682</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1.01</v>
+        <v>1.11470108541532</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.923333362502783</v>
+        <v>0.99</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1.07666663749722</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2978,21 +2978,21 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.955157747123127</v>
+        <v>0.923333362502783</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.04484225287687</v>
+        <v>1.07666663749722</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3006,77 +3006,77 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.824707049979672</v>
+        <v>0.955157747123127</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1.17529295002033</v>
+        <v>1.04484225287687</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.952987338158675</v>
+        <v>0.99</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1.04701266184133</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.873263888888888</v>
+        <v>0.824707049979672</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1.12673611111111</v>
+        <v>1.17529295002033</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.99</v>
+        <v>0.952987338158675</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1.01</v>
+        <v>1.04701266184133</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.99</v>
+        <v>0.873263888888888</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1.01</v>
+        <v>1.12673611111111</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3090,21 +3090,21 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.944333167529983</v>
+        <v>0.99</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1.05566683247002</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3118,63 +3118,63 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.890748496539046</v>
+        <v>0.944333167529983</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1.10925150346095</v>
+        <v>1.05566683247002</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.738916363773338</v>
+        <v>0.99</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1.26108363622666</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.99</v>
+        <v>0.890748496539046</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1.01</v>
+        <v>1.10925150346095</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.99</v>
+        <v>0.738916363773338</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1.01</v>
+        <v>1.26108363622666</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3216,7 +3216,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3230,7 +3230,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3258,7 +3258,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3272,7 +3272,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3286,7 +3286,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3298,8 +3298,34 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3319,15 +3345,15 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A:D H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.3481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4364,7 +4390,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12291,13 +12317,13 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -13360,7 +13386,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14090,7 +14116,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14367,7 +14393,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14654,7 +14680,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14941,7 +14967,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15527,7 +15553,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="11"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,687 +32,693 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="227">
-  <si>
-    <t>General Reaction and Sampling Platform (GRASP)</t>
-  </si>
-  <si>
-    <t>Model name</t>
-  </si>
-  <si>
-    <t>toy_model5_debug</t>
-  </si>
-  <si>
-    <t>Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>ORACLE</t>
-  </si>
-  <si>
-    <t>NLP solver (NLOPT, OPTI, FMINCON (default))</t>
-  </si>
-  <si>
-    <t>FMINCON</t>
-  </si>
-  <si>
-    <t>Number of exp. conditions (excluding reference state)</t>
-  </si>
-  <si>
-    <t>Number of model structures</t>
-  </si>
-  <si>
-    <t>Number of particles</t>
-  </si>
-  <si>
-    <t>Parallel mode (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Number of cores (ignored if Parallel mode disabled)</t>
-  </si>
-  <si>
-    <t>Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t>Compute robust fluxes (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t>Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
-    <t>Final tolerance (in the case of ORACLE, set to 1)</t>
-  </si>
-  <si>
-    <t>rxn ID</t>
-  </si>
-  <si>
-    <t>m1</t>
-  </si>
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>m3</t>
-  </si>
-  <si>
-    <t>m4</t>
-  </si>
-  <si>
-    <t>m5</t>
-  </si>
-  <si>
-    <t>m6</t>
-  </si>
-  <si>
-    <t>m7</t>
-  </si>
-  <si>
-    <t>m8</t>
-  </si>
-  <si>
-    <t>m9</t>
-  </si>
-  <si>
-    <t>m10</t>
-  </si>
-  <si>
-    <t>m11</t>
-  </si>
-  <si>
-    <t>m12</t>
-  </si>
-  <si>
-    <t>m13</t>
-  </si>
-  <si>
-    <t>m14</t>
-  </si>
-  <si>
-    <t>m15</t>
-  </si>
-  <si>
-    <t>m16</t>
-  </si>
-  <si>
-    <t>m17</t>
-  </si>
-  <si>
-    <t>m18</t>
-  </si>
-  <si>
-    <t>m19</t>
-  </si>
-  <si>
-    <t>m20</t>
-  </si>
-  <si>
-    <t>m21</t>
-  </si>
-  <si>
-    <t>m22</t>
-  </si>
-  <si>
-    <t>m23</t>
-  </si>
-  <si>
-    <t>m24</t>
-  </si>
-  <si>
-    <t>m25</t>
-  </si>
-  <si>
-    <t>m26</t>
-  </si>
-  <si>
-    <t>m27</t>
-  </si>
-  <si>
-    <t>m28</t>
-  </si>
-  <si>
-    <t>m29</t>
-  </si>
-  <si>
-    <t>m30</t>
-  </si>
-  <si>
-    <t>m31</t>
-  </si>
-  <si>
-    <t>m32</t>
-  </si>
-  <si>
-    <t>m33</t>
-  </si>
-  <si>
-    <t>m34</t>
-  </si>
-  <si>
-    <t>m35</t>
-  </si>
-  <si>
-    <t>m36</t>
-  </si>
-  <si>
-    <t>m37</t>
-  </si>
-  <si>
-    <t>m38</t>
-  </si>
-  <si>
-    <t>m39</t>
-  </si>
-  <si>
-    <t>m40</t>
-  </si>
-  <si>
-    <t>m41</t>
-  </si>
-  <si>
-    <t>m42</t>
-  </si>
-  <si>
-    <t>m43</t>
-  </si>
-  <si>
-    <t>m44</t>
-  </si>
-  <si>
-    <t>m45</t>
-  </si>
-  <si>
-    <t>m46</t>
-  </si>
-  <si>
-    <t>m47</t>
-  </si>
-  <si>
-    <t>m48</t>
-  </si>
-  <si>
-    <t>m49</t>
-  </si>
-  <si>
-    <t>m50</t>
-  </si>
-  <si>
-    <t>m51</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>r2</t>
-  </si>
-  <si>
-    <t>r3</t>
-  </si>
-  <si>
-    <t>r4</t>
-  </si>
-  <si>
-    <t>r5</t>
-  </si>
-  <si>
-    <t>r6</t>
-  </si>
-  <si>
-    <t>r7</t>
-  </si>
-  <si>
-    <t>r8</t>
-  </si>
-  <si>
-    <t>r9</t>
-  </si>
-  <si>
-    <t>r10</t>
-  </si>
-  <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>r12</t>
-  </si>
-  <si>
-    <t>r13</t>
-  </si>
-  <si>
-    <t>r14</t>
-  </si>
-  <si>
-    <t>r15</t>
-  </si>
-  <si>
-    <t>r16</t>
-  </si>
-  <si>
-    <t>r17</t>
-  </si>
-  <si>
-    <t>r18</t>
-  </si>
-  <si>
-    <t>r19</t>
-  </si>
-  <si>
-    <t>r20</t>
-  </si>
-  <si>
-    <t>r21</t>
-  </si>
-  <si>
-    <t>r22</t>
-  </si>
-  <si>
-    <t>r23</t>
-  </si>
-  <si>
-    <t>r24</t>
-  </si>
-  <si>
-    <t>r25</t>
-  </si>
-  <si>
-    <t>r26</t>
-  </si>
-  <si>
-    <t>r27</t>
-  </si>
-  <si>
-    <t>r28</t>
-  </si>
-  <si>
-    <t>r29</t>
-  </si>
-  <si>
-    <t>r30</t>
-  </si>
-  <si>
-    <t>r31</t>
-  </si>
-  <si>
-    <t>r32</t>
-  </si>
-  <si>
-    <t>r33</t>
-  </si>
-  <si>
-    <t>r34</t>
-  </si>
-  <si>
-    <t>r35</t>
-  </si>
-  <si>
-    <t>r36</t>
-  </si>
-  <si>
-    <t>r37</t>
-  </si>
-  <si>
-    <t>r38</t>
-  </si>
-  <si>
-    <t>r39</t>
-  </si>
-  <si>
-    <t>r40</t>
-  </si>
-  <si>
-    <t>r41</t>
-  </si>
-  <si>
-    <t>r42</t>
-  </si>
-  <si>
-    <t>r43</t>
-  </si>
-  <si>
-    <t>r44</t>
-  </si>
-  <si>
-    <t>r45</t>
-  </si>
-  <si>
-    <t>r46</t>
-  </si>
-  <si>
-    <t>r47</t>
-  </si>
-  <si>
-    <t>r48</t>
-  </si>
-  <si>
-    <t>r49</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Metabolite name</t>
-  </si>
-  <si>
-    <t>balanced?</t>
-  </si>
-  <si>
-    <t>active?</t>
-  </si>
-  <si>
-    <t>fixed?</t>
-  </si>
-  <si>
-    <t>measured?</t>
-  </si>
-  <si>
-    <t>reaction name</t>
-  </si>
-  <si>
-    <t>transportRxn?</t>
-  </si>
-  <si>
-    <t>modelled?</t>
-  </si>
-  <si>
-    <t>isoenzymes</t>
-  </si>
-  <si>
-    <t>met</t>
-  </si>
-  <si>
-    <t>rxn</t>
-  </si>
-  <si>
-    <t>∆Gr'_min (kJ/mol)</t>
-  </si>
-  <si>
-    <t>∆Gr'_max (kJ/mol)</t>
-  </si>
-  <si>
-    <t>Unnamed: 3</t>
-  </si>
-  <si>
-    <t>equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
-  </si>
-  <si>
-    <t>equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
-  </si>
-  <si>
-    <t>min (M)</t>
-  </si>
-  <si>
-    <t>max (M)</t>
-  </si>
-  <si>
-    <t>Fluxes (umol/gCDW/h)</t>
-  </si>
-  <si>
-    <t>MBo10_mean</t>
-  </si>
-  <si>
-    <t>MBo10_std</t>
-  </si>
-  <si>
-    <t>MBo10_mean2</t>
-  </si>
-  <si>
-    <t>enzyme/rxn</t>
-  </si>
-  <si>
-    <t>MBo10_LB2</t>
-  </si>
-  <si>
-    <t>MBo10_meas2</t>
-  </si>
-  <si>
-    <t>MBo10_UB2</t>
-  </si>
-  <si>
-    <t>reaction ID</t>
-  </si>
-  <si>
-    <t>kinetic mechanism</t>
-  </si>
-  <si>
-    <t>substrate order</t>
-  </si>
-  <si>
-    <t>product order</t>
-  </si>
-  <si>
-    <t>promiscuous</t>
-  </si>
-  <si>
-    <t>inhibitors</t>
-  </si>
-  <si>
-    <t>activators</t>
-  </si>
-  <si>
-    <t>negative effectors</t>
-  </si>
-  <si>
-    <t>positive effectors</t>
-  </si>
-  <si>
-    <t>allosteric</t>
-  </si>
-  <si>
-    <t>subunits</t>
-  </si>
-  <si>
-    <t>mechanism_refs_type</t>
-  </si>
-  <si>
-    <t>mechanism_refs</t>
-  </si>
-  <si>
-    <t>inhibitors_refs_type</t>
-  </si>
-  <si>
-    <t>inhibitors_refs</t>
-  </si>
-  <si>
-    <t>activators_refs_type</t>
-  </si>
-  <si>
-    <t>activators_refs</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>negative_effectors_refs</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs_type</t>
-  </si>
-  <si>
-    <t>positive_effectors_refs</t>
-  </si>
-  <si>
-    <t>subunits_refs_type</t>
-  </si>
-  <si>
-    <t>subunits_refs</t>
-  </si>
-  <si>
-    <t>comments</t>
-  </si>
-  <si>
-    <t>orderedBiTer</t>
-  </si>
-  <si>
-    <t>m2 m3</t>
-  </si>
-  <si>
-    <t>m6 m7 m5</t>
-  </si>
-  <si>
-    <t>randomBiBi</t>
-  </si>
-  <si>
-    <t>m5 m3</t>
-  </si>
-  <si>
-    <t>m6 m8</t>
-  </si>
-  <si>
-    <t>uniUni</t>
-  </si>
-  <si>
-    <t>m10 m3</t>
-  </si>
-  <si>
-    <t>m6 m11</t>
-  </si>
-  <si>
-    <t>orderedBiBi</t>
-  </si>
-  <si>
-    <t>m3 m13</t>
-  </si>
-  <si>
-    <t>m14 m6</t>
-  </si>
-  <si>
-    <t>PGLCNDH</t>
-  </si>
-  <si>
-    <t>m15 m14 m17 m14</t>
-  </si>
-  <si>
-    <t>m16 m18 m11 m11</t>
-  </si>
-  <si>
-    <t>r7 r8</t>
-  </si>
-  <si>
-    <t>pingPongBiBi</t>
-  </si>
-  <si>
-    <t>m2 m19</t>
-  </si>
-  <si>
-    <t>m9 m20</t>
-  </si>
-  <si>
-    <t>m19 m9</t>
-  </si>
-  <si>
-    <t>m12 m20</t>
-  </si>
-  <si>
-    <t>m18 m8</t>
-  </si>
-  <si>
-    <t>m21 m17</t>
-  </si>
-  <si>
-    <t>m17 m15</t>
-  </si>
-  <si>
-    <t>G6PDH2PromiscuousOrdered</t>
-  </si>
-  <si>
-    <t>m16 m8 m18 m8</t>
-  </si>
-  <si>
-    <t>m21 m21 m15 m17</t>
-  </si>
-  <si>
-    <t>r12 r13</t>
-  </si>
-  <si>
-    <t>GND</t>
-  </si>
-  <si>
-    <t>m11 m16 m11 m18</t>
-  </si>
-  <si>
-    <t>m15 m17 m23 m23</t>
-  </si>
-  <si>
-    <t>r15 r16</t>
-  </si>
-  <si>
-    <t>m24 m25</t>
-  </si>
-  <si>
-    <t>m26 m27</t>
-  </si>
-  <si>
-    <t>m25 m28</t>
-  </si>
-  <si>
-    <t>m26 m29</t>
-  </si>
-  <si>
-    <t>m27 m26</t>
-  </si>
-  <si>
-    <t>m28 m29</t>
-  </si>
-  <si>
-    <t>randomUniBi</t>
-  </si>
-  <si>
-    <t>m26 m31</t>
-  </si>
-  <si>
-    <t>orderedUniBi</t>
-  </si>
-  <si>
-    <t>m29 m7</t>
-  </si>
-  <si>
-    <t>orderedBiUni</t>
-  </si>
-  <si>
-    <t>m33 m26</t>
-  </si>
-  <si>
-    <t>orderedTerBi</t>
-  </si>
-  <si>
-    <t>m16 m26 m7</t>
-  </si>
-  <si>
-    <t>m34 m15</t>
-  </si>
-  <si>
-    <t>m6 m34</t>
-  </si>
-  <si>
-    <t>m35 m3</t>
-  </si>
-  <si>
-    <t>m6 m37</t>
-  </si>
-  <si>
-    <t>m3 m31</t>
-  </si>
-  <si>
-    <t>m30 m24 m29</t>
-  </si>
-  <si>
-    <t>GTHPi</t>
-  </si>
-  <si>
-    <t>m38 m39 m39</t>
-  </si>
-  <si>
-    <t>pingPongUniUniUniBi</t>
-  </si>
-  <si>
-    <t>m17 m40</t>
-  </si>
-  <si>
-    <t>m18 m39</t>
-  </si>
-  <si>
-    <t>massAction</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="229">
+  <si>
+    <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Model name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toy_model5_debug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORACLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FMINCON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP solver (linprog or gurobi)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of model structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of particles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallel mode (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolite name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">balanced?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fixed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measured?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transportRxn?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modelled?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isoenzymes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">met</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_min (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">∆Gr'_max (kJ/mol)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unnamed: 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator:  D-Glucose + Ubiquinone + H2O &lt;=&gt; D-Gluconate + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equilibrator: D-Gluconate + Ubiquinone &lt;=&gt; 2-Keto-D-gluconic acid + Ubiquinol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max (M)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fluxes (umol/gCDW/h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_std</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_mean2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enzyme/rxn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_LB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_meas2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MBo10_UB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kinetic mechanism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">substrate order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">product order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">promiscuous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive effectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">allosteric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mechanism_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inhibitors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activators_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">negative_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positive_effectors_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subunits_refs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiTer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m7 m5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m5 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m10 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m14 m6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGLCNDH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15 m14 m17 m14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m18 m11 m11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r7 r8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongBiBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m2 m19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m9 m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m19 m9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m12 m20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21 m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17 m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G6PDH2PromiscuousOrdered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m8 m18 m8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m21 m21 m15 m17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r12 r13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m11 m16 m11 m18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m15 m17 m23 m23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r15 r16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m24 m25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m25 m28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m27 m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m28 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m26 m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m29 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedBiUni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m33 m26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orderedTerBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m16 m26 m7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m34 m15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m35 m3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m6 m37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m3 m31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m30 m24 m29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTHPi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m38 m39 m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pingPongUniUniUniBi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m17 m40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m18 m39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massAction</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -814,13 +820,17 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -853,15 +863,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -893,17 +903,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
+      <c r="B5" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
@@ -911,66 +921,74 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -985,35 +1003,35 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A:D I40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A5:B5 I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -1030,7 +1048,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -1047,7 +1065,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -1064,7 +1082,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -1081,7 +1099,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -1098,7 +1116,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -1115,7 +1133,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -1132,7 +1150,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -1149,7 +1167,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -1166,7 +1184,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -1183,7 +1201,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -1200,7 +1218,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -1217,7 +1235,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -1234,7 +1252,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -1251,7 +1269,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -1268,7 +1286,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -1285,7 +1303,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -1302,7 +1320,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -1319,7 +1337,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -1336,7 +1354,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -1353,7 +1371,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -1370,7 +1388,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -1387,7 +1405,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -1404,7 +1422,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -1421,7 +1439,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -1438,7 +1456,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -1455,7 +1473,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -1472,7 +1490,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -1489,7 +1507,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -1506,7 +1524,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -1523,7 +1541,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -1540,7 +1558,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -1557,7 +1575,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -1574,7 +1592,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -1591,7 +1609,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -1608,7 +1626,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -1625,7 +1643,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -1642,7 +1660,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -1659,7 +1677,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -1676,7 +1694,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -1693,7 +1711,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -1710,7 +1728,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -1727,7 +1745,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -1744,7 +1762,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -1761,7 +1779,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -1778,7 +1796,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -1795,7 +1813,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -1812,7 +1830,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -1829,7 +1847,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>
@@ -1847,7 +1865,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1862,32 +1880,32 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1901,7 +1919,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1915,7 +1933,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1929,7 +1947,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1943,7 +1961,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1957,7 +1975,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1971,7 +1989,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1985,7 +2003,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1999,7 +2017,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2013,7 +2031,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2027,7 +2045,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -2041,7 +2059,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2055,7 +2073,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2069,7 +2087,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2083,7 +2101,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -2097,7 +2115,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -2111,7 +2129,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -2125,7 +2143,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -2139,7 +2157,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2153,7 +2171,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2167,7 +2185,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2181,7 +2199,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2195,7 +2213,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -2209,7 +2227,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -2223,7 +2241,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2237,7 +2255,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2251,7 +2269,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -2265,7 +2283,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2279,7 +2297,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -2293,7 +2311,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2307,7 +2325,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -2321,7 +2339,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -2335,7 +2353,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -2349,7 +2367,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2363,7 +2381,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2377,7 +2395,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2391,7 +2409,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2405,7 +2423,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2419,7 +2437,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2433,7 +2451,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2447,7 +2465,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2461,7 +2479,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2475,7 +2493,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2489,7 +2507,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2503,7 +2521,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2517,7 +2535,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2531,7 +2549,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2545,7 +2563,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2559,7 +2577,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2574,7 +2592,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2589,32 +2607,32 @@
   </sheetPr>
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -2628,7 +2646,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -2642,7 +2660,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -2656,7 +2674,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2670,7 +2688,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -2684,7 +2702,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2698,7 +2716,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2712,7 +2730,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2726,7 +2744,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2740,7 +2758,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2754,7 +2772,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2768,7 +2786,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2782,7 +2800,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2796,7 +2814,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2810,7 +2828,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2824,7 +2842,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2838,7 +2856,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2852,7 +2870,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2866,7 +2884,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2880,7 +2898,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2894,7 +2912,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2908,7 +2926,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2922,7 +2940,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2936,7 +2954,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2950,7 +2968,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2964,7 +2982,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2978,7 +2996,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2992,7 +3010,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3006,7 +3024,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -3020,7 +3038,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -3034,7 +3052,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -3048,7 +3066,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -3062,7 +3080,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -3076,7 +3094,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3090,7 +3108,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -3104,7 +3122,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3118,7 +3136,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -3132,7 +3150,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -3146,7 +3164,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -3160,7 +3178,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -3174,7 +3192,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3188,7 +3206,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3202,7 +3220,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3216,7 +3234,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3230,7 +3248,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3244,7 +3262,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3258,7 +3276,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3272,7 +3290,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3286,7 +3304,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3300,7 +3318,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -3314,7 +3332,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -3329,7 +3347,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -3344,105 +3362,105 @@
   </sheetPr>
   <dimension ref="A1:X50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A:D H17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A5:B5 H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3453,16 +3471,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3473,16 +3491,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3493,19 +3511,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3516,16 +3534,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -3536,16 +3554,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3556,19 +3574,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3579,19 +3597,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="3" t="s">
         <v>183</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="E9" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3602,16 +3620,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3622,16 +3640,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3642,19 +3660,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3665,22 +3683,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3691,22 +3709,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>194</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>196</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>192</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3717,16 +3735,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3737,22 +3755,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D16" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C16" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E16" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -3763,22 +3781,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>197</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D17" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C17" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="E17" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -3789,16 +3807,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -3806,20 +3824,20 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -3830,16 +3848,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3847,20 +3865,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3868,20 +3886,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3892,19 +3910,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3915,16 +3933,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3935,16 +3953,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3952,20 +3970,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3973,20 +3991,20 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -3997,16 +4015,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -4017,19 +4035,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -4040,16 +4058,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4060,16 +4078,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4080,16 +4098,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -4100,19 +4118,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4123,16 +4141,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -4143,16 +4161,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4163,10 +4181,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4177,10 +4195,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4191,10 +4209,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4205,10 +4223,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4219,10 +4237,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4233,10 +4251,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4247,10 +4265,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4261,10 +4279,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4275,10 +4293,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4289,10 +4307,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4303,10 +4321,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4317,10 +4335,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4331,10 +4349,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4345,10 +4363,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4359,10 +4377,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -4374,7 +4392,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4389,176 +4407,176 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A5:B5 C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4716,7 +4734,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4874,7 +4892,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5032,7 +5050,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5190,7 +5208,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5348,7 +5366,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5506,7 +5524,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5664,7 +5682,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5822,7 +5840,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5980,7 +5998,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6138,7 +6156,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6296,7 +6314,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6454,7 +6472,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6612,7 +6630,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6770,7 +6788,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6928,7 +6946,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7086,7 +7104,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7244,7 +7262,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7402,7 +7420,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7560,7 +7578,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7718,7 +7736,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7876,7 +7894,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -8034,7 +8052,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -8192,7 +8210,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8350,7 +8368,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -8508,7 +8526,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8666,7 +8684,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8824,7 +8842,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8982,7 +9000,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -9140,7 +9158,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -9298,7 +9316,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9456,7 +9474,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9614,7 +9632,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9772,7 +9790,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9930,7 +9948,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -10088,7 +10106,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -10246,7 +10264,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -10404,7 +10422,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -10562,7 +10580,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10720,7 +10738,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10878,7 +10896,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11036,7 +11054,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11194,7 +11212,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11352,7 +11370,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -11510,7 +11528,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11668,7 +11686,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11826,7 +11844,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11984,7 +12002,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12142,7 +12160,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -12301,7 +12319,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -12316,43 +12334,43 @@
   </sheetPr>
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="A5:B5 D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12369,10 +12387,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -12389,10 +12407,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -12409,10 +12427,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12429,10 +12447,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -12449,10 +12467,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -12469,10 +12487,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12489,10 +12507,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -12509,10 +12527,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -12529,10 +12547,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -12549,10 +12567,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -12569,10 +12587,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -12589,10 +12607,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -12609,10 +12627,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -12629,10 +12647,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -12649,10 +12667,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -12669,10 +12687,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -12689,10 +12707,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -12709,10 +12727,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12729,10 +12747,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12749,10 +12767,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -12769,10 +12787,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12789,10 +12807,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -12809,10 +12827,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -12829,10 +12847,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -12849,10 +12867,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -12869,10 +12887,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -12889,10 +12907,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -12909,10 +12927,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -12929,10 +12947,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -12949,10 +12967,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -12969,10 +12987,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -12989,10 +13007,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -13009,10 +13027,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -13029,10 +13047,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -13049,10 +13067,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -13069,10 +13087,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -13089,10 +13107,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -13109,10 +13127,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -13129,10 +13147,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -13149,10 +13167,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13169,10 +13187,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -13189,10 +13207,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -13209,10 +13227,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -13229,10 +13247,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -13249,10 +13267,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -13269,10 +13287,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -13289,10 +13307,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -13309,10 +13327,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -13329,10 +13347,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -13349,10 +13367,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -13370,7 +13388,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -13385,38 +13403,38 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -13427,10 +13445,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -13441,10 +13459,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -13455,10 +13473,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -13469,10 +13487,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -13483,10 +13501,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -13497,10 +13515,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -13511,10 +13529,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -13525,10 +13543,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -13539,10 +13557,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -13553,10 +13571,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -13567,10 +13585,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -13581,10 +13599,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -13595,10 +13613,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -13609,10 +13627,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -13623,10 +13641,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -13637,10 +13655,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -13651,10 +13669,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -13665,10 +13683,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -13679,10 +13697,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -13693,10 +13711,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -13707,10 +13725,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -13721,10 +13739,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -13735,10 +13753,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -13749,10 +13767,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -13763,10 +13781,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -13777,10 +13795,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -13791,10 +13809,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -13805,10 +13823,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -13819,10 +13837,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -13833,10 +13851,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -13847,10 +13865,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -13861,10 +13879,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -13875,10 +13893,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -13889,10 +13907,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -13903,10 +13921,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -13917,10 +13935,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -13931,10 +13949,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -13945,10 +13963,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -13959,10 +13977,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -13973,10 +13991,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -13987,10 +14005,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -14001,10 +14019,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -14015,10 +14033,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -14029,10 +14047,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -14043,10 +14061,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -14057,10 +14075,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -14071,10 +14089,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -14085,10 +14103,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -14100,7 +14118,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14115,269 +14133,269 @@
   </sheetPr>
   <dimension ref="A2:A51"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14392,279 +14410,279 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14679,279 +14697,279 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -14966,32 +14984,32 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -15002,7 +15020,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -15013,7 +15031,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -15024,7 +15042,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -15035,7 +15053,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -15046,7 +15064,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -15057,7 +15075,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -15068,7 +15086,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -15079,7 +15097,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -15088,12 +15106,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -15102,12 +15120,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -15118,7 +15136,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -15129,7 +15147,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -15140,7 +15158,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -15151,7 +15169,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -15162,7 +15180,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -15173,7 +15191,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -15184,7 +15202,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -15195,7 +15213,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -15206,7 +15224,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -15217,7 +15235,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -15228,7 +15246,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -15239,7 +15257,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -15250,7 +15268,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -15261,7 +15279,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -15272,7 +15290,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -15283,7 +15301,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -15294,7 +15312,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -15305,7 +15323,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -15316,7 +15334,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -15327,7 +15345,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -15338,7 +15356,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -15349,7 +15367,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -15360,7 +15378,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -15371,7 +15389,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -15382,7 +15400,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -15393,7 +15411,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -15404,7 +15422,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -15415,7 +15433,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -15426,7 +15444,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -15437,7 +15455,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -15448,7 +15466,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -15459,7 +15477,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -15470,7 +15488,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -15481,7 +15499,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -15492,7 +15510,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -15503,7 +15521,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -15514,7 +15532,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -15525,7 +15543,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -15537,7 +15555,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15552,29 +15570,29 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A:D"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -15585,7 +15603,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -15596,7 +15614,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -15607,7 +15625,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -15618,7 +15636,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -15629,7 +15647,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -15640,7 +15658,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -15651,7 +15669,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -15662,7 +15680,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -15673,7 +15691,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -15684,7 +15702,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -15695,7 +15713,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -15706,7 +15724,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -15717,7 +15735,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -15728,7 +15746,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -15739,7 +15757,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -15750,7 +15768,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -15761,7 +15779,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -15772,7 +15790,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -15783,7 +15801,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -15794,7 +15812,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -15805,7 +15823,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -15816,7 +15834,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -15827,7 +15845,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -15838,7 +15856,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -15849,7 +15867,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -15860,7 +15878,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -15871,7 +15889,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -15882,7 +15900,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -15893,7 +15911,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -15904,7 +15922,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -15915,7 +15933,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -15926,7 +15944,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -15937,7 +15955,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -15948,7 +15966,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -15959,7 +15977,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -15970,7 +15988,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -15981,7 +15999,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -15992,7 +16010,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -16003,7 +16021,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -16014,7 +16032,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -16025,7 +16043,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -16036,7 +16054,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -16047,7 +16065,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -16058,7 +16076,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -16069,7 +16087,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -16080,7 +16098,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -16091,7 +16109,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -16102,7 +16120,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -16113,7 +16131,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -16124,7 +16142,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -16136,7 +16154,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -43,13 +43,13 @@
     <t xml:space="preserve">toy_model5_debug</t>
   </si>
   <si>
-    <t xml:space="preserve">Sampling mode (ORACLE, rejection, rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORACLE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLP solver (NLOPT, OPTI, FMINCON (default))</t>
+    <t xml:space="preserve">Sampling mode (GRASP or rejection)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRASP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP solver (NLOPT or FMINCON (default))</t>
   </si>
   <si>
     <t xml:space="preserve">FMINCON</t>
@@ -76,18 +76,9 @@
     <t xml:space="preserve">Number of cores (ignored if Parallel mode disabled)</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentile of alive particles for SMC (e.g., 20, 50, etc.) (only needed for rejectionSMC, SMC, MCMC-SMC)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compute robust fluxes (ON = 1; OFF = 0)</t>
   </si>
   <si>
-    <t xml:space="preserve">Compute thermodynamics (ON = 1; OFF = 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inicial tolerance (OPTIONAL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Final tolerance (in the case of ORACLE, set to 1)</t>
   </si>
   <si>
@@ -403,12 +394,6 @@
     <t xml:space="preserve">balanced?</t>
   </si>
   <si>
-    <t xml:space="preserve">active?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fixed?</t>
-  </si>
-  <si>
     <t xml:space="preserve">measured?</t>
   </si>
   <si>
@@ -416,9 +401,6 @@
   </si>
   <si>
     <t xml:space="preserve">transportRxn?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modelled?</t>
   </si>
   <si>
     <t xml:space="preserve">isoenzymes</t>
@@ -863,15 +845,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:B5"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -879,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -887,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,7 +878,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -955,36 +938,21 @@
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B11" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1004,7 +972,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A5:B5 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1014,24 +982,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -1048,7 +1016,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -1065,7 +1033,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -1082,7 +1050,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -1099,7 +1067,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -1116,7 +1084,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -1133,7 +1101,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -1150,7 +1118,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -1167,7 +1135,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -1184,7 +1152,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -1201,7 +1169,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -1218,7 +1186,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -1235,7 +1203,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -1252,7 +1220,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -1269,7 +1237,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -1286,7 +1254,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -1303,7 +1271,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -1320,7 +1288,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -1337,7 +1305,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -1354,7 +1322,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -1371,7 +1339,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -1388,7 +1356,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -1405,7 +1373,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -1422,7 +1390,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -1439,7 +1407,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -1456,7 +1424,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -1473,7 +1441,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -1490,7 +1458,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -1507,7 +1475,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -1524,7 +1492,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -1541,7 +1509,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -1558,7 +1526,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -1575,7 +1543,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -1592,7 +1560,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -1609,7 +1577,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -1626,7 +1594,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -1643,7 +1611,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -1660,7 +1628,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -1677,7 +1645,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -1694,7 +1662,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -1711,7 +1679,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -1728,7 +1696,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -1745,7 +1713,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -1762,7 +1730,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -1779,7 +1747,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -1796,7 +1764,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -1813,7 +1781,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -1830,7 +1798,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -1847,7 +1815,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>
@@ -1881,7 +1849,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1891,21 +1859,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1919,7 +1887,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1933,7 +1901,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1947,7 +1915,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1961,7 +1929,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1975,7 +1943,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1989,7 +1957,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2003,7 +1971,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -2017,7 +1985,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2031,7 +1999,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2045,7 +2013,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -2059,7 +2027,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2073,7 +2041,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2087,7 +2055,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2101,7 +2069,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -2115,7 +2083,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -2129,7 +2097,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -2143,7 +2111,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -2157,7 +2125,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2171,7 +2139,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2185,7 +2153,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2199,7 +2167,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2213,7 +2181,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -2227,7 +2195,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -2241,7 +2209,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2255,7 +2223,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2269,7 +2237,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -2283,7 +2251,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2297,7 +2265,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -2311,7 +2279,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2325,7 +2293,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -2339,7 +2307,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -2353,7 +2321,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -2367,7 +2335,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2381,7 +2349,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2395,7 +2363,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2409,7 +2377,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -2423,7 +2391,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2437,7 +2405,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -2451,7 +2419,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -2465,7 +2433,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2479,7 +2447,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2493,7 +2461,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2507,7 +2475,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2521,7 +2489,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2535,7 +2503,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2549,7 +2517,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2563,7 +2531,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2577,7 +2545,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2608,7 +2576,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A5:B5 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2618,21 +2586,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -2646,7 +2614,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -2660,7 +2628,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -2674,7 +2642,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -2688,7 +2656,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -2702,7 +2670,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -2716,7 +2684,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -2730,7 +2698,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -2744,7 +2712,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -2758,7 +2726,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -2772,7 +2740,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -2786,7 +2754,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -2800,7 +2768,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -2814,7 +2782,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -2828,7 +2796,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -2842,7 +2810,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -2856,7 +2824,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -2870,7 +2838,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -2884,7 +2852,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -2898,7 +2866,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -2912,7 +2880,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2926,7 +2894,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2940,7 +2908,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2954,7 +2922,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2968,7 +2936,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2982,7 +2950,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2996,7 +2964,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -3010,7 +2978,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -3024,7 +2992,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -3038,7 +3006,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -3052,7 +3020,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -3066,7 +3034,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -3080,7 +3048,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -3094,7 +3062,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -3108,7 +3076,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -3122,7 +3090,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -3136,7 +3104,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -3150,7 +3118,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -3164,7 +3132,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -3178,7 +3146,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -3192,7 +3160,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -3206,7 +3174,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -3220,7 +3188,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -3234,7 +3202,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -3248,7 +3216,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -3262,7 +3230,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -3276,7 +3244,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -3290,7 +3258,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -3304,7 +3272,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -3318,7 +3286,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -3332,7 +3300,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -3363,7 +3331,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A5:B5 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3377,90 +3345,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>164</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3471,16 +3439,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3491,16 +3459,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -3511,19 +3479,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -3534,16 +3502,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -3554,16 +3522,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3574,19 +3542,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3597,19 +3565,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3620,16 +3588,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3640,16 +3608,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3660,19 +3628,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3683,22 +3651,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3709,22 +3677,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3735,16 +3703,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -3755,22 +3723,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -3781,22 +3749,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -3807,16 +3775,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -3828,16 +3796,16 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -3848,16 +3816,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3869,16 +3837,16 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3890,16 +3858,16 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3910,19 +3878,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3933,16 +3901,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3953,16 +3921,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3974,16 +3942,16 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3995,16 +3963,16 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -4015,16 +3983,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -4035,19 +4003,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -4058,16 +4026,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4078,16 +4046,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -4098,16 +4066,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -4118,19 +4086,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4141,16 +4109,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -4161,16 +4129,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4181,10 +4149,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4195,10 +4163,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4209,10 +4177,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4223,10 +4191,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4237,10 +4205,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4251,10 +4219,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4265,10 +4233,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4279,10 +4247,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4293,10 +4261,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4307,10 +4275,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4321,10 +4289,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4335,10 +4303,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4349,10 +4317,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4363,10 +4331,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4377,10 +4345,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -4408,7 +4376,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A5:B5 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4418,165 +4386,165 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4734,7 +4702,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4892,7 +4860,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5050,7 +5018,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5208,7 +5176,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5366,7 +5334,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5524,7 +5492,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5682,7 +5650,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5840,7 +5808,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5998,7 +5966,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6156,7 +6124,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6314,7 +6282,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6472,7 +6440,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6630,7 +6598,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6788,7 +6756,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6946,7 +6914,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7104,7 +7072,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7262,7 +7230,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7420,7 +7388,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7578,7 +7546,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7736,7 +7704,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -7894,7 +7862,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -8052,7 +8020,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -8210,7 +8178,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -8368,7 +8336,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -8526,7 +8494,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -8684,7 +8652,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -8842,7 +8810,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -9000,7 +8968,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -9158,7 +9126,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -9316,7 +9284,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -9474,7 +9442,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -9632,7 +9600,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -9790,7 +9758,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9948,7 +9916,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -10106,7 +10074,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -10264,7 +10232,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -10422,7 +10390,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -10580,7 +10548,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -10738,7 +10706,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -10896,7 +10864,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -11054,7 +11022,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -11212,7 +11180,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -11370,7 +11338,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -11528,7 +11496,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -11686,7 +11654,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -11844,7 +11812,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -12002,7 +11970,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -12160,7 +12128,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -12332,1056 +12300,745 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="A5:B5 D23"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13401,718 +13058,569 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -14134,7 +13642,7 @@
   <dimension ref="A2:A51"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14144,252 +13652,252 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -14411,7 +13919,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14421,262 +13929,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14698,7 +14206,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A5:B5 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14708,262 +14216,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14985,7 +14493,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14995,21 +14503,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -15020,7 +14528,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -15031,7 +14539,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -15042,7 +14550,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -15053,7 +14561,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -15064,7 +14572,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -15075,7 +14583,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -15086,7 +14594,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -15097,7 +14605,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -15106,12 +14614,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -15120,12 +14628,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -15136,7 +14644,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -15147,7 +14655,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -15158,7 +14666,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -15169,7 +14677,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -15180,7 +14688,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -15191,7 +14699,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -15202,7 +14710,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -15213,7 +14721,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -15224,7 +14732,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -15235,7 +14743,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -15246,7 +14754,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -15257,7 +14765,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -15268,7 +14776,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -15279,7 +14787,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -15290,7 +14798,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -15301,7 +14809,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -15312,7 +14820,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -15323,7 +14831,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -15334,7 +14842,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -15345,7 +14853,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -15356,7 +14864,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -15367,7 +14875,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -15378,7 +14886,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -15389,7 +14897,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -15400,7 +14908,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -15411,7 +14919,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -15422,7 +14930,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -15433,7 +14941,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -15444,7 +14952,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -15455,7 +14963,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -15466,7 +14974,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -15477,7 +14985,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -15488,7 +14996,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -15499,7 +15007,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -15510,7 +15018,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -15521,7 +15029,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -15532,7 +15040,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -15543,7 +15051,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -15571,7 +15079,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A5:B5 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15581,18 +15089,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -15603,7 +15111,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -15614,7 +15122,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -15625,7 +15133,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -15636,7 +15144,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -15647,7 +15155,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -15658,7 +15166,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -15669,7 +15177,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -15680,7 +15188,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -15691,7 +15199,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -15702,7 +15210,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -15713,7 +15221,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -15724,7 +15232,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -15735,7 +15243,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -15746,7 +15254,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -15757,7 +15265,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -15768,7 +15276,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -15779,7 +15287,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -15790,7 +15298,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -15801,7 +15309,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -15812,7 +15320,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -15823,7 +15331,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -15834,7 +15342,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -15845,7 +15353,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -15856,7 +15364,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -15867,7 +15375,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -15878,7 +15386,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -15889,7 +15397,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -15900,7 +15408,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -15911,7 +15419,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -15922,7 +15430,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -15933,7 +15441,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -15944,7 +15452,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -15955,7 +15463,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -15966,7 +15474,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -15977,7 +15485,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -15988,7 +15496,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -15999,7 +15507,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -16010,7 +15518,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -16021,7 +15529,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -16032,7 +15540,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -16043,7 +15551,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -16054,7 +15562,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -16065,7 +15573,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -16076,7 +15584,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -16087,7 +15595,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -16098,7 +15606,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -16109,7 +15617,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -16120,7 +15628,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -16131,7 +15639,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -16142,7 +15650,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -848,7 +848,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="955" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">balanced?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured?</t>
   </si>
   <si>
     <t xml:space="preserve">reaction name</t>
@@ -802,7 +799,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,10 +810,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -847,7 +840,7 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
     </sheetView>
   </sheetViews>
@@ -982,19 +975,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,16 +1852,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,16 +2579,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3345,76 +3338,76 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,13 +3415,13 @@
         <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -3442,13 +3435,13 @@
         <v>69</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>169</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>170</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -3462,7 +3455,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>25</v>
@@ -3482,13 +3475,13 @@
         <v>71</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>56</v>
@@ -3505,7 +3498,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>28</v>
@@ -3525,13 +3518,13 @@
         <v>73</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>175</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>176</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -3545,16 +3538,16 @@
         <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -3568,16 +3561,16 @@
         <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="0" t="s">
         <v>179</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>180</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -3591,13 +3584,13 @@
         <v>76</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="D10" s="0" t="s">
         <v>182</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>183</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -3611,13 +3604,13 @@
         <v>77</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>184</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>185</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -3631,16 +3624,16 @@
         <v>78</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>187</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>188</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -3654,19 +3647,19 @@
         <v>79</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -3680,19 +3673,19 @@
         <v>80</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H14" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -3706,7 +3699,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>37</v>
@@ -3726,16 +3719,16 @@
         <v>82</v>
       </c>
       <c r="B16" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>33</v>
@@ -3752,16 +3745,16 @@
         <v>83</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="0" t="s">
         <v>195</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>196</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>33</v>
@@ -3778,7 +3771,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>39</v>
@@ -3792,14 +3785,14 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="5"/>
+      <c r="W18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>39</v>
@@ -3819,13 +3812,13 @@
         <v>86</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>197</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>198</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -3833,20 +3826,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="5"/>
+      <c r="W20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>87</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C21" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="0" t="s">
         <v>199</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>200</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -3854,20 +3847,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="5"/>
+      <c r="W21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>88</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="0" t="s">
         <v>201</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>202</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -3881,7 +3874,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>27</v>
@@ -3904,13 +3897,13 @@
         <v>90</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3924,7 +3917,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>55</v>
@@ -3938,20 +3931,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="5"/>
+      <c r="W25" s="4"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3959,17 +3952,17 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="5"/>
+      <c r="W26" s="4"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>208</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>48</v>
@@ -3986,7 +3979,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>42</v>
@@ -4006,13 +3999,13 @@
         <v>95</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="0" t="s">
         <v>210</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>211</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>54</v>
@@ -4029,13 +4022,13 @@
         <v>96</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="0" t="s">
         <v>212</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>213</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -4049,7 +4042,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C31" s="0" t="s">
         <v>51</v>
@@ -4069,7 +4062,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>52</v>
@@ -4089,16 +4082,16 @@
         <v>99</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="I33" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>216</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -4112,10 +4105,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>56</v>
@@ -4132,13 +4125,13 @@
         <v>101</v>
       </c>
       <c r="B35" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
         <v>220</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>221</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -4152,7 +4145,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -4166,7 +4159,7 @@
         <v>103</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -4180,7 +4173,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -4194,7 +4187,7 @@
         <v>105</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -4208,7 +4201,7 @@
         <v>106</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -4222,7 +4215,7 @@
         <v>107</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -4236,7 +4229,7 @@
         <v>108</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -4250,7 +4243,7 @@
         <v>109</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -4264,7 +4257,7 @@
         <v>110</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -4278,7 +4271,7 @@
         <v>111</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -4292,7 +4285,7 @@
         <v>112</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -4306,7 +4299,7 @@
         <v>113</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -4320,7 +4313,7 @@
         <v>114</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -4334,7 +4327,7 @@
         <v>115</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -4348,7 +4341,7 @@
         <v>116</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -12300,9 +12293,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -12310,8 +12303,8 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="3" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1021" min="3" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12324,9 +12317,6 @@
       <c r="C1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>120</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -12338,9 +12328,6 @@
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -12352,9 +12339,6 @@
       <c r="C3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -12366,9 +12350,6 @@
       <c r="C4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -12380,9 +12361,6 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -12394,9 +12372,6 @@
       <c r="C6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -12408,9 +12383,6 @@
       <c r="C7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -12422,9 +12394,6 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -12436,9 +12405,6 @@
       <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -12450,9 +12416,6 @@
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -12464,9 +12427,6 @@
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -12478,9 +12438,6 @@
       <c r="C12" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -12492,9 +12449,6 @@
       <c r="C13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
@@ -12506,9 +12460,6 @@
       <c r="C14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -12520,9 +12471,6 @@
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -12534,9 +12482,6 @@
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -12548,9 +12493,6 @@
       <c r="C17" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -12562,9 +12504,6 @@
       <c r="C18" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -12576,9 +12515,6 @@
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -12590,9 +12526,6 @@
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -12604,9 +12537,6 @@
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -12618,9 +12548,6 @@
       <c r="C22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -12632,9 +12559,6 @@
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -12646,9 +12570,6 @@
       <c r="C24" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -12660,9 +12581,6 @@
       <c r="C25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -12674,9 +12592,6 @@
       <c r="C26" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D26" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -12688,9 +12603,6 @@
       <c r="C27" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -12702,9 +12614,6 @@
       <c r="C28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D28" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -12716,9 +12625,6 @@
       <c r="C29" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -12730,9 +12636,6 @@
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -12744,9 +12647,6 @@
       <c r="C31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -12758,9 +12658,6 @@
       <c r="C32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -12772,9 +12669,6 @@
       <c r="C33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
@@ -12786,9 +12680,6 @@
       <c r="C34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -12800,9 +12691,6 @@
       <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -12814,9 +12702,6 @@
       <c r="C36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -12828,9 +12713,6 @@
       <c r="C37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -12842,9 +12724,6 @@
       <c r="C38" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -12856,9 +12735,6 @@
       <c r="C39" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -12870,9 +12746,6 @@
       <c r="C40" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -12884,9 +12757,6 @@
       <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -12898,9 +12768,6 @@
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -12912,9 +12779,6 @@
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D43" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -12926,9 +12790,6 @@
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -12940,9 +12801,6 @@
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -12954,9 +12812,6 @@
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -12968,9 +12823,6 @@
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -12982,9 +12834,6 @@
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -12996,9 +12845,6 @@
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -13010,9 +12856,6 @@
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D50" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -13024,9 +12867,6 @@
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -13036,9 +12876,6 @@
         <v>67</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13075,13 +12912,13 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13929,7 +13766,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14216,7 +14053,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14503,16 +14340,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14614,7 +14451,7 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14628,7 +14465,7 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15089,13 +14926,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,22 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="stoic" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="mets" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="rxns" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="splitRatios" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="poolConst" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="thermo_ineq_constraints" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="thermoRxns" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="thermoMets" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="measRates" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="protData" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="metsData" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="kinetics1" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="poolConst" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="thermo_ineq_constraints" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="thermoRxns" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="thermoMets" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="measRates" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="protData" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="metsData" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="kinetics1" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="222">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -962,883 +961,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E50"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>630</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>4790</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>360</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>5510</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>720</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>585</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>292.5</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1170</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>295</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>44</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <v>440</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>570</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <v>460</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>40</v>
-      </c>
-      <c r="D30" s="0" t="n">
-        <v>5110</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D31" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>70</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>80</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <v>3890</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>2230</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>533.75</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <v>5337.5</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>533.75</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>31</v>
-      </c>
-      <c r="D38" s="0" t="n">
-        <v>312.5</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>10000</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>47</v>
-      </c>
-      <c r="D40" s="0" t="n">
-        <v>470</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="D41" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>29</v>
-      </c>
-      <c r="D44" s="0" t="n">
-        <v>290</v>
-      </c>
-      <c r="E44" s="0" t="n">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D46" s="0" t="n">
-        <v>90</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>140</v>
-      </c>
-      <c r="E47" s="0" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="D49" s="0" t="n">
-        <v>750</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>611</v>
-      </c>
-      <c r="D50" s="0" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>611</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2561,7 +1683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -3316,7 +2438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -12295,7 +11417,7 @@
   </sheetPr>
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -13476,9 +12598,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A51"/>
+  <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -13489,252 +12611,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>95</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>102</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>105</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>108</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>110</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>113</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>114</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>116</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -14040,293 +13172,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A53"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
-  </cols>
-  <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -14908,7 +13753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -15505,4 +14350,881 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>4790</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>360</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>5510</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>5510</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>720</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>585</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1170</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>440</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>570</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>460</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>4360</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3890</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>3890</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2230</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>223</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>2230</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>5337.5</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>533.75</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>5337.5</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>533.75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>312.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>470</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>750</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>611</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>611</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="225">
   <si>
     <t xml:space="preserve">General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t xml:space="preserve">gurobi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for fluxes (uniform or normal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prior distribution for thermodynamic quantities (uniform or normal)</t>
   </si>
   <si>
     <t xml:space="preserve">Number of exp. conditions (excluding reference state)</t>
@@ -706,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -736,6 +745,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -794,11 +810,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -811,11 +827,19 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -839,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,49 +910,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -936,14 +960,28 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -964,7 +1002,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -974,21 +1012,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1002,7 +1040,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1016,7 +1054,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.99</v>
@@ -1030,7 +1068,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1044,7 +1082,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1058,7 +1096,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.99</v>
@@ -1072,7 +1110,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1086,7 +1124,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.99</v>
@@ -1100,7 +1138,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1114,7 +1152,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1128,7 +1166,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.99</v>
@@ -1142,7 +1180,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1156,7 +1194,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1170,7 +1208,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1184,7 +1222,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.99</v>
@@ -1198,7 +1236,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -1212,7 +1250,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.99</v>
@@ -1226,7 +1264,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.99</v>
@@ -1240,7 +1278,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1254,7 +1292,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1268,7 +1306,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -1282,7 +1320,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -1296,7 +1334,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.99</v>
@@ -1310,7 +1348,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.99</v>
@@ -1324,7 +1362,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -1338,7 +1376,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -1352,7 +1390,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.99</v>
@@ -1366,7 +1404,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -1380,7 +1418,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.99</v>
@@ -1394,7 +1432,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -1408,7 +1446,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.99</v>
@@ -1422,7 +1460,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.99</v>
@@ -1436,7 +1474,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.99</v>
@@ -1450,7 +1488,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -1464,7 +1502,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -1478,7 +1516,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -1492,7 +1530,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.99</v>
@@ -1506,7 +1544,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -1520,7 +1558,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.99</v>
@@ -1534,7 +1572,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.99</v>
@@ -1548,7 +1586,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -1562,7 +1600,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -1576,7 +1614,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -1590,7 +1628,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -1604,7 +1642,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -1618,7 +1656,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -1632,7 +1670,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -1646,7 +1684,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -1660,7 +1698,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -1691,7 +1729,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,21 +1739,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.99</v>
@@ -1729,7 +1767,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.99</v>
@@ -1743,7 +1781,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.805792525521532</v>
@@ -1757,7 +1795,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.99</v>
@@ -1771,7 +1809,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.99</v>
@@ -1785,7 +1823,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.928124943041768</v>
@@ -1799,7 +1837,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -1813,7 +1851,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.980758075213057</v>
@@ -1827,7 +1865,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.99</v>
@@ -1841,7 +1879,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0.99</v>
@@ -1855,7 +1893,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0.850553653712464</v>
@@ -1869,7 +1907,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.99</v>
@@ -1883,7 +1921,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.99</v>
@@ -1897,7 +1935,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.99</v>
@@ -1911,7 +1949,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.998343913039016</v>
@@ -1925,7 +1963,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.925834010503215</v>
@@ -1939,7 +1977,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.914831185724609</v>
@@ -1953,7 +1991,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0.889197992439507</v>
@@ -1967,7 +2005,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0.99</v>
@@ -1981,7 +2019,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0.99</v>
@@ -1995,7 +2033,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.99</v>
@@ -2009,7 +2047,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0.99</v>
@@ -2023,7 +2061,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0.912928600623706</v>
@@ -2037,7 +2075,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0.885298914584682</v>
@@ -2051,7 +2089,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0.99</v>
@@ -2065,7 +2103,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.99</v>
@@ -2079,7 +2117,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.923333362502783</v>
@@ -2093,7 +2131,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0.99</v>
@@ -2107,7 +2145,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.955157747123127</v>
@@ -2121,7 +2159,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0.99</v>
@@ -2135,7 +2173,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.824707049979672</v>
@@ -2149,7 +2187,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.952987338158675</v>
@@ -2163,7 +2201,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0.873263888888888</v>
@@ -2177,7 +2215,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0.99</v>
@@ -2191,7 +2229,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.99</v>
@@ -2205,7 +2243,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.99</v>
@@ -2219,7 +2257,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.944333167529983</v>
@@ -2233,7 +2271,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0.99</v>
@@ -2247,7 +2285,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.890748496539046</v>
@@ -2261,7 +2299,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.738916363773338</v>
@@ -2275,7 +2313,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0.99</v>
@@ -2289,7 +2327,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0.99</v>
@@ -2303,7 +2341,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0.99</v>
@@ -2317,7 +2355,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0.99</v>
@@ -2331,7 +2369,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0.99</v>
@@ -2345,7 +2383,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0.99</v>
@@ -2359,7 +2397,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0.99</v>
@@ -2373,7 +2411,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0.99</v>
@@ -2387,7 +2425,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>0.99</v>
@@ -2401,7 +2439,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>0.99</v>
@@ -2415,7 +2453,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>0.99</v>
@@ -2446,7 +2484,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A6:B7 H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2460,90 +2498,90 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="J2" s="0" t="n">
         <v>0</v>
@@ -2554,16 +2592,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J3" s="0" t="n">
         <v>0</v>
@@ -2574,16 +2612,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J4" s="0" t="n">
         <v>0</v>
@@ -2594,19 +2632,19 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>1</v>
@@ -2617,16 +2655,16 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J6" s="0" t="n">
         <v>0</v>
@@ -2637,16 +2675,16 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>0</v>
@@ -2657,19 +2695,19 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J8" s="0" t="n">
         <v>0</v>
@@ -2680,19 +2718,19 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="J9" s="0" t="n">
         <v>0</v>
@@ -2703,16 +2741,16 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0</v>
@@ -2723,16 +2761,16 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0</v>
@@ -2743,19 +2781,19 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>1</v>
@@ -2766,22 +2804,22 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>1</v>
@@ -2792,22 +2830,22 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>188</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="H14" s="0" t="s">
         <v>190</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>187</v>
       </c>
       <c r="J14" s="0" t="n">
         <v>1</v>
@@ -2818,16 +2856,16 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J15" s="0" t="n">
         <v>0</v>
@@ -2838,22 +2876,22 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J16" s="0" t="n">
         <v>1</v>
@@ -2864,22 +2902,22 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>1</v>
@@ -2890,16 +2928,16 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J18" s="0" t="n">
         <v>0</v>
@@ -2907,20 +2945,20 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="4"/>
+      <c r="W18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J19" s="0" t="n">
         <v>0</v>
@@ -2931,16 +2969,16 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J20" s="0" t="n">
         <v>0</v>
@@ -2948,20 +2986,20 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="4"/>
+      <c r="W20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0</v>
@@ -2969,20 +3007,20 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="4"/>
+      <c r="W21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0</v>
@@ -2993,19 +3031,19 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>1</v>
@@ -3016,16 +3054,16 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0</v>
@@ -3036,16 +3074,16 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0</v>
@@ -3053,20 +3091,20 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="4"/>
+      <c r="W25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0</v>
@@ -3074,20 +3112,20 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="4"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0</v>
@@ -3098,16 +3136,16 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0</v>
@@ -3118,19 +3156,19 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>1</v>
@@ -3141,16 +3179,16 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0</v>
@@ -3161,16 +3199,16 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J31" s="0" t="n">
         <v>0</v>
@@ -3181,16 +3219,16 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J32" s="0" t="n">
         <v>0</v>
@@ -3201,19 +3239,19 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="J33" s="0" t="n">
         <v>1</v>
@@ -3224,16 +3262,16 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J34" s="0" t="n">
         <v>0</v>
@@ -3244,16 +3282,16 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0</v>
@@ -3264,10 +3302,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J36" s="0" t="n">
         <v>0</v>
@@ -3278,10 +3316,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0</v>
@@ -3292,10 +3330,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0</v>
@@ -3306,10 +3344,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0</v>
@@ -3320,10 +3358,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0</v>
@@ -3334,10 +3372,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0</v>
@@ -3348,10 +3386,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0</v>
@@ -3362,10 +3400,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0</v>
@@ -3376,10 +3414,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0</v>
@@ -3390,10 +3428,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0</v>
@@ -3404,10 +3442,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0</v>
@@ -3418,10 +3456,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0</v>
@@ -3432,10 +3470,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0</v>
@@ -3446,10 +3484,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>0</v>
@@ -3460,10 +3498,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0</v>
@@ -3491,7 +3529,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A6:B7 C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3501,165 +3539,165 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -3817,7 +3855,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -3975,7 +4013,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4133,7 +4171,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4291,7 +4329,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4449,7 +4487,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -4607,7 +4645,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4765,7 +4803,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -4923,7 +4961,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -5081,7 +5119,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5239,7 +5277,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -5397,7 +5435,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5555,7 +5593,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5713,7 +5751,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5871,7 +5909,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6029,7 +6067,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6187,7 +6225,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6345,7 +6383,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6503,7 +6541,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6661,7 +6699,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6819,7 +6857,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6977,7 +7015,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7135,7 +7173,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7293,7 +7331,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7451,7 +7489,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7609,7 +7647,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7767,7 +7805,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7925,7 +7963,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -8083,7 +8121,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -8241,7 +8279,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -8399,7 +8437,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -8557,7 +8595,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -8715,7 +8753,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -8873,7 +8911,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -9031,7 +9069,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -9189,7 +9227,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -9347,7 +9385,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -9505,7 +9543,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -9663,7 +9701,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -9821,7 +9859,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -9979,7 +10017,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -10137,7 +10175,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>0</v>
@@ -10295,7 +10333,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>0</v>
@@ -10453,7 +10491,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>0</v>
@@ -10611,7 +10649,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>0</v>
@@ -10769,7 +10807,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>0</v>
@@ -10927,7 +10965,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>0</v>
@@ -11085,7 +11123,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>0</v>
@@ -11243,7 +11281,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-1</v>
@@ -11418,7 +11456,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11431,21 +11469,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -11453,10 +11491,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>1</v>
@@ -11464,10 +11502,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -11475,10 +11513,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -11486,10 +11524,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>1</v>
@@ -11497,10 +11535,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>1</v>
@@ -11508,10 +11546,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -11519,10 +11557,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>1</v>
@@ -11530,10 +11568,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
@@ -11541,10 +11579,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
@@ -11552,10 +11590,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>1</v>
@@ -11563,10 +11601,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>1</v>
@@ -11574,10 +11612,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>1</v>
@@ -11585,10 +11623,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
@@ -11596,10 +11634,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
@@ -11607,10 +11645,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>1</v>
@@ -11618,10 +11656,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1</v>
@@ -11629,10 +11667,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
@@ -11640,10 +11678,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -11651,10 +11689,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -11662,10 +11700,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1</v>
@@ -11673,10 +11711,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -11684,10 +11722,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>1</v>
@@ -11695,10 +11733,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>1</v>
@@ -11706,10 +11744,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>1</v>
@@ -11717,10 +11755,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>1</v>
@@ -11728,10 +11766,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>1</v>
@@ -11739,10 +11777,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>1</v>
@@ -11750,10 +11788,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
@@ -11761,10 +11799,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>1</v>
@@ -11772,10 +11810,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>1</v>
@@ -11783,10 +11821,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1</v>
@@ -11794,10 +11832,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>1</v>
@@ -11805,10 +11843,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>1</v>
@@ -11816,10 +11854,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>1</v>
@@ -11827,10 +11865,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>1</v>
@@ -11838,10 +11876,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>1</v>
@@ -11849,10 +11887,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>1</v>
@@ -11860,10 +11898,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>1</v>
@@ -11871,10 +11909,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>1</v>
@@ -11882,10 +11920,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -11893,10 +11931,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -11904,10 +11942,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -11915,10 +11953,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -11926,10 +11964,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -11937,10 +11975,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -11948,10 +11986,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -11959,10 +11997,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -11970,10 +12008,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -11981,10 +12019,10 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
@@ -11992,10 +12030,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -12020,7 +12058,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12031,24 +12069,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -12056,10 +12094,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -12067,10 +12105,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -12078,10 +12116,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -12089,10 +12127,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -12100,10 +12138,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -12111,10 +12149,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -12122,10 +12160,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -12133,10 +12171,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -12144,10 +12182,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -12155,10 +12193,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -12166,10 +12204,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -12177,10 +12215,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
@@ -12188,10 +12226,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
@@ -12199,10 +12237,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
@@ -12210,10 +12248,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
@@ -12221,10 +12259,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
@@ -12232,10 +12270,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
@@ -12243,10 +12281,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
@@ -12254,10 +12292,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
@@ -12265,10 +12303,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
@@ -12276,10 +12314,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
@@ -12287,10 +12325,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
@@ -12298,10 +12336,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
@@ -12309,10 +12347,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
@@ -12320,10 +12358,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -12331,10 +12369,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -12342,10 +12380,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -12353,10 +12391,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -12364,10 +12402,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -12375,10 +12413,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -12386,10 +12424,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
@@ -12397,10 +12435,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -12408,10 +12446,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
@@ -12419,10 +12457,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -12430,10 +12468,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
@@ -12441,10 +12479,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
@@ -12452,10 +12490,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
@@ -12463,10 +12501,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
@@ -12474,10 +12512,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
@@ -12485,10 +12523,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
@@ -12496,10 +12534,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
@@ -12507,10 +12545,10 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
@@ -12518,10 +12556,10 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
@@ -12529,10 +12567,10 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
@@ -12540,10 +12578,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
@@ -12551,10 +12589,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
@@ -12562,10 +12600,10 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
@@ -12573,10 +12611,10 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
@@ -12600,8 +12638,8 @@
   </sheetPr>
   <dimension ref="A2:A53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12611,262 +12649,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -12888,7 +12926,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12898,262 +12936,262 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -13175,7 +13213,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13185,21 +13223,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>-26.7</v>
@@ -13210,7 +13248,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-17.67</v>
@@ -13221,7 +13259,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>-5</v>
@@ -13232,7 +13270,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>-13.28</v>
@@ -13243,7 +13281,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>-5</v>
@@ -13254,7 +13292,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>-15.53</v>
@@ -13265,7 +13303,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>-18.47</v>
@@ -13276,7 +13314,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>-19.27</v>
@@ -13287,7 +13325,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>-124.6</v>
@@ -13296,12 +13334,12 @@
         <v>-107.6</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>-72.7</v>
@@ -13310,12 +13348,12 @@
         <v>-60.3</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>-3.75</v>
@@ -13326,7 +13364,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>-4.55</v>
@@ -13337,7 +13375,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>-3.75</v>
@@ -13348,7 +13386,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>-22.74</v>
@@ -13359,7 +13397,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>7.05</v>
@@ -13370,7 +13408,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7.83</v>
@@ -13381,7 +13419,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>-2.7</v>
@@ -13392,7 +13430,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>-4.56</v>
@@ -13403,7 +13441,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>-5.89</v>
@@ -13414,7 +13452,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>-11.95</v>
@@ -13425,7 +13463,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>-2.02</v>
@@ -13436,7 +13474,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>-45.61</v>
@@ -13447,7 +13485,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>13.43</v>
@@ -13458,7 +13496,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>-7.92</v>
@@ -13469,7 +13507,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>-12.1</v>
@@ -13480,7 +13518,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>-45.36</v>
@@ -13491,7 +13529,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>-26</v>
@@ -13502,7 +13540,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>7.44</v>
@@ -13513,7 +13551,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>-18.92</v>
@@ -13524,7 +13562,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3.88</v>
@@ -13535,7 +13573,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>-40.39</v>
@@ -13546,7 +13584,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>-28.05</v>
@@ -13557,7 +13595,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>-313.2</v>
@@ -13568,7 +13606,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>-18.1</v>
@@ -13579,7 +13617,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>-184.66</v>
@@ -13590,7 +13628,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>-64.84</v>
@@ -13601,7 +13639,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>-65.67</v>
@@ -13612,7 +13650,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>-5</v>
@@ -13623,7 +13661,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>-5</v>
@@ -13634,7 +13672,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>-5</v>
@@ -13645,7 +13683,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>-5</v>
@@ -13656,7 +13694,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>-5</v>
@@ -13667,7 +13705,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>-5</v>
@@ -13678,7 +13716,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>-5</v>
@@ -13689,7 +13727,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>-5</v>
@@ -13700,7 +13738,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>-5</v>
@@ -13711,7 +13749,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>-5</v>
@@ -13722,7 +13760,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>-5</v>
@@ -13733,7 +13771,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>-5</v>
@@ -13761,7 +13799,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13771,18 +13809,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1E-012</v>
@@ -13793,7 +13831,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1E-012</v>
@@ -13804,7 +13842,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.000439345784032404</v>
@@ -13815,7 +13853,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1E-012</v>
@@ -13826,7 +13864,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1E-012</v>
@@ -13837,7 +13875,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6.24506431401138E-005</v>
@@ -13848,7 +13886,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1E-012</v>
@@ -13859,7 +13897,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.000883222876526613</v>
@@ -13870,7 +13908,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1E-012</v>
@@ -13881,7 +13919,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1E-012</v>
@@ -13892,7 +13930,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>2.46062514038848E-005</v>
@@ -13903,7 +13941,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1E-012</v>
@@ -13914,7 +13952,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1E-012</v>
@@ -13925,7 +13963,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1E-012</v>
@@ -13936,7 +13974,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3.05924813144012E-006</v>
@@ -13947,7 +13985,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.000203370048921736</v>
@@ -13958,7 +13996,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>2.24717321858005E-006</v>
@@ -13969,7 +14007,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5.09756677236924E-005</v>
@@ -13980,7 +14018,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1E-012</v>
@@ -13991,7 +14029,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1E-012</v>
@@ -14002,7 +14040,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1E-012</v>
@@ -14013,7 +14051,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1E-012</v>
@@ -14024,7 +14062,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5.71511530863543E-005</v>
@@ -14035,7 +14073,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>7.3421020529482E-006</v>
@@ -14046,7 +14084,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1E-012</v>
@@ -14057,7 +14095,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1E-012</v>
@@ -14068,7 +14106,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0.000132829358941644</v>
@@ -14079,7 +14117,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1E-012</v>
@@ -14090,7 +14128,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.000178644347391622</v>
@@ -14101,7 +14139,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1E-012</v>
@@ -14112,7 +14150,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.000169455106133193</v>
@@ -14123,7 +14161,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.27743320102831E-005</v>
@@ -14134,7 +14172,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>9.16927083333333E-005</v>
@@ -14145,7 +14183,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1E-012</v>
@@ -14156,7 +14194,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1E-012</v>
@@ -14167,7 +14205,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1E-012</v>
@@ -14178,7 +14216,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0.000321335591728953</v>
@@ -14189,7 +14227,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1E-012</v>
@@ -14200,7 +14238,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0.000703656517402701</v>
@@ -14211,7 +14249,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0.000284280752609516</v>
@@ -14222,7 +14260,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1E-012</v>
@@ -14233,7 +14271,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1E-012</v>
@@ -14244,7 +14282,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1E-012</v>
@@ -14255,7 +14293,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1E-012</v>
@@ -14266,7 +14304,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1E-012</v>
@@ -14277,7 +14315,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1E-012</v>
@@ -14288,7 +14326,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1E-012</v>
@@ -14299,7 +14337,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1E-012</v>
@@ -14310,7 +14348,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1E-012</v>
@@ -14321,7 +14359,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1E-012</v>
@@ -14332,7 +14370,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1E-012</v>
@@ -14360,7 +14398,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A6:B7 I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14370,24 +14408,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>630</v>
@@ -14404,7 +14442,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>630</v>
@@ -14421,7 +14459,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>4790</v>
@@ -14438,7 +14476,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4790</v>
@@ -14455,7 +14493,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>720</v>
@@ -14472,7 +14510,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>720</v>
@@ -14489,7 +14527,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>360</v>
@@ -14506,7 +14544,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>360</v>
@@ -14523,7 +14561,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5510</v>
@@ -14540,7 +14578,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>720</v>
@@ -14557,7 +14595,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>585</v>
@@ -14574,7 +14612,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>292.5</v>
@@ -14591,7 +14629,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>292.5</v>
@@ -14608,7 +14646,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1170</v>
@@ -14625,7 +14663,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>295</v>
@@ -14642,7 +14680,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>295</v>
@@ -14659,7 +14697,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>440</v>
@@ -14676,7 +14714,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>150</v>
@@ -14693,7 +14731,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>150</v>
@@ -14710,7 +14748,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>10</v>
@@ -14727,7 +14765,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>150</v>
@@ -14744,7 +14782,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>6110</v>
@@ -14761,7 +14799,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>6110</v>
@@ -14778,7 +14816,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>570</v>
@@ -14795,7 +14833,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>460</v>
@@ -14812,7 +14850,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>460</v>
@@ -14829,7 +14867,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>460</v>
@@ -14846,7 +14884,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5110</v>
@@ -14863,7 +14901,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>5110</v>
@@ -14880,7 +14918,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>4360</v>
@@ -14897,7 +14935,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>4360</v>
@@ -14914,7 +14952,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3890</v>
@@ -14931,7 +14969,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>500</v>
@@ -14948,7 +14986,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>500</v>
@@ -14965,7 +15003,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>2230</v>
@@ -14982,7 +15020,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5337.5</v>
@@ -14999,7 +15037,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>312.5</v>
@@ -15016,7 +15054,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>10000</v>
@@ -15033,7 +15071,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>470</v>
@@ -15050,7 +15088,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>500</v>
@@ -15067,7 +15105,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>30</v>
@@ -15084,7 +15122,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>20</v>
@@ -15101,7 +15139,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -15118,7 +15156,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>10</v>
@@ -15135,7 +15173,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>90</v>
@@ -15152,7 +15190,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>140</v>
@@ -15169,7 +15207,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>50</v>
@@ -15186,7 +15224,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>750</v>
@@ -15203,7 +15241,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>6140</v>

--- a/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
+++ b/matlab_code/tests/ensembleFxns/testFiles/toy_model5_debug.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -715,7 +715,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,13 +745,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -810,11 +803,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -827,10 +820,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -839,7 +828,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -863,8 +852,8 @@
   </sheetPr>
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6:B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -911,18 +900,18 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1002,7 +991,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1729,7 +1718,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2484,7 +2473,7 @@
   <dimension ref="A1:X50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H17" activeCellId="1" sqref="A6:B7 H17"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2580,7 +2569,7 @@
       <c r="C2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>169</v>
       </c>
       <c r="J2" s="0" t="n">
@@ -2700,10 +2689,10 @@
       <c r="B8" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E8" s="0" t="s">
@@ -2723,10 +2712,10 @@
       <c r="B9" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E9" s="0" t="s">
@@ -2809,10 +2798,10 @@
       <c r="B13" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -2835,10 +2824,10 @@
       <c r="B14" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="0" t="s">
@@ -2881,10 +2870,10 @@
       <c r="B16" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E16" s="0" t="s">
@@ -2907,10 +2896,10 @@
       <c r="B17" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E17" s="0" t="s">
@@ -2945,7 +2934,7 @@
       <c r="K18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W18" s="6"/>
+      <c r="W18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2986,7 +2975,7 @@
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3007,7 +2996,7 @@
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W21" s="6"/>
+      <c r="W21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3091,7 +3080,7 @@
       <c r="K25" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="W25" s="6"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3112,7 +3101,7 @@
       <c r="K26" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="W26" s="6"/>
+      <c r="W26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3161,7 +3150,7 @@
       <c r="B29" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>212</v>
       </c>
       <c r="D29" s="0" t="s">
@@ -3250,7 +3239,7 @@
       <c r="D33" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="I33" s="5" t="s">
+      <c r="I33" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J33" s="0" t="n">
@@ -3529,7 +3518,7 @@
   <dimension ref="A1:AZ50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A6:B7 C21"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11456,7 +11445,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12058,7 +12047,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="A6:B7 D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12639,7 +12628,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12926,7 +12915,7 @@
   <dimension ref="A2:A53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A6:B7 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13212,8 +13201,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13262,7 +13251,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-5</v>
+        <v>-70</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>5</v>
@@ -13799,7 +13788,7 @@
   <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A6:B7 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14398,7 +14387,7 @@
   <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="1" sqref="A6:B7 I40"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
